--- a/btpy/src/btpy/res/symbol_emotion.xlsx
+++ b/btpy/src/btpy/res/symbol_emotion.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>word</t>
   </si>
@@ -53,16 +53,25 @@
     <t>none</t>
   </si>
   <si>
-    <t>stupid</t>
+    <t>insult</t>
   </si>
   <si>
-    <t>pretty</t>
+    <t>flattery</t>
   </si>
   <si>
-    <t>ugly</t>
+    <t>ugliness</t>
   </si>
   <si>
     <t>death</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>stench</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1009,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1146,7 +1155,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="B7">
         <v>0</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1163,15 +1175,18 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1186,7 +1201,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
       <c r="B9">
         <v>0</v>
       </c>
@@ -1197,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
